--- a/Requisitos_Solemar.xlsx
+++ b/Requisitos_Solemar.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25132500\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E9F9CC-F2C9-4B55-9E5C-03DA1F2ACBAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funcionais" sheetId="1" r:id="rId1"/>
     <sheet name="Não Funcionais" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="50">
   <si>
     <t>Categoria</t>
   </si>
@@ -170,8 +176,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,9 +217,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -232,13 +236,130 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6CF68E8-3807-4EE3-9E38-ACD82A3264D1}" name="Tabela1" displayName="Tabela1" ref="A1:B32" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="A1:B32" xr:uid="{1089481B-3D4D-40E1-B928-EA89CB840A46}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{FC6BC1DD-3395-487A-B7F9-60DBBD3F0714}" name="Categoria"/>
+    <tableColumn id="2" xr3:uid="{CEEEEF9B-1DF5-43EC-980D-EA97FA96E0E0}" name="Descrição"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4367F3D4-6133-4221-BF27-EDAFF5F976AC}" name="Tabela2" displayName="Tabela2" ref="A1:B8" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:B8" xr:uid="{FEEAEDCA-C32A-413A-A2C9-F28A629DCBFF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{369A17CE-DE58-49CA-A7B0-74760765E66F}" name="Categoria"/>
+    <tableColumn id="2" xr3:uid="{677C8DBB-74DC-4772-9B75-21273778474C}" name="Descrição"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -280,7 +401,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,9 +433,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,6 +485,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -521,14 +678,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -544,7 +707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -552,7 +715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -560,7 +723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -568,7 +731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -576,7 +739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -584,7 +747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -592,7 +755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -600,7 +763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -608,7 +771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -616,7 +779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -624,7 +787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -632,7 +795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -640,7 +803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -648,7 +811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -656,7 +819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -664,7 +827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -672,7 +835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -680,7 +843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -688,7 +851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -696,7 +859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -704,7 +867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -712,7 +875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -720,7 +883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -728,7 +891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -736,7 +899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -744,7 +907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -752,7 +915,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -760,7 +923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -768,7 +931,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -776,7 +939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -786,18 +949,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -813,7 +985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -821,7 +993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -829,7 +1001,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -837,7 +1009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -845,7 +1017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -853,7 +1025,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -863,5 +1035,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>